--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -342,86 +342,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A22"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2">
         <f>A1+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3">
-        <f t="shared" ref="A3:F13" si="0">A2+1</f>
+        <f t="shared" ref="A3:I13" si="0">A2+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:9">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:9">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -447,19 +479,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="A14">
         <f t="shared" ref="A14" si="1">A13+1</f>
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:9">
       <c r="A15">
         <f t="shared" ref="A15" si="2">A14+1</f>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:9">
       <c r="A16">
         <f t="shared" ref="A16" si="3">A15+1</f>
         <v>16</v>
